--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/Slicers_03_06.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/Slicers_03_06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C54A83-D30F-4964-8ACE-A7DF9B8C680F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9978C75-5966-4E2D-93CB-8DD267E2AFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OrderDetails!$G$1:$G$275</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">[1]Products!$B$1</definedName>
+    <definedName name="SegmentaciónDeDatos_Category">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Quantity">#N/A</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -42,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="251">
   <si>
     <t>OrderNum</t>
   </si>
@@ -785,13 +796,16 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Sum of Total Price</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Segmentación de datos</t>
   </si>
 </sst>
 </file>
@@ -855,10 +869,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -880,6 +894,167 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>328244</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>633044</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61546</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Category">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024AB3D2-F1E2-4C32-B523-3549060BBB75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Category"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2636225" y="204421"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-GT" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>93784</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>545123</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46892</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Quantity">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A265541B-7B59-44FA-AF9D-EDAE85190289}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Quantity"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4614496" y="189767"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-GT" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1243,7 +1418,26 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Quantity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="18"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="18" count="18">
+        <n v="1"/>
+        <n v="10"/>
+        <n v="2"/>
+        <n v="8"/>
+        <n v="11"/>
+        <n v="17"/>
+        <n v="7"/>
+        <n v="3"/>
+        <n v="12"/>
+        <n v="5"/>
+        <n v="16"/>
+        <n v="15"/>
+        <n v="9"/>
+        <n v="14"/>
+        <n v="4"/>
+        <n v="13"/>
+        <n v="18"/>
+        <n v="6"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Unit Price" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.65" maxValue="44006"/>
@@ -1529,7 +1723,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1172857138"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1545,7 +1739,7 @@
     <x v="0"/>
     <s v="KE625"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1201.23"/>
     <x v="0"/>
   </r>
@@ -1557,7 +1751,7 @@
     <x v="1"/>
     <s v="KI9K"/>
     <x v="1"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="19806"/>
     <x v="1"/>
   </r>
@@ -1569,7 +1763,7 @@
     <x v="1"/>
     <s v="KI7K"/>
     <x v="2"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="10714"/>
     <x v="2"/>
   </r>
@@ -1581,7 +1775,7 @@
     <x v="2"/>
     <s v="KE12Li"/>
     <x v="3"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="4504"/>
     <x v="3"/>
   </r>
@@ -1593,7 +1787,7 @@
     <x v="1"/>
     <s v="KI13K"/>
     <x v="4"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="28604"/>
     <x v="4"/>
   </r>
@@ -1605,7 +1799,7 @@
     <x v="0"/>
     <s v="KE5"/>
     <x v="5"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="40.950000000000003"/>
     <x v="5"/>
   </r>
@@ -1617,7 +1811,7 @@
     <x v="2"/>
     <s v="KEAAA12"/>
     <x v="6"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="12.8"/>
     <x v="6"/>
   </r>
@@ -1629,7 +1823,7 @@
     <x v="3"/>
     <s v="KE9W"/>
     <x v="7"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="9"/>
     <x v="7"/>
   </r>
@@ -1641,7 +1835,7 @@
     <x v="3"/>
     <s v="KE13W"/>
     <x v="8"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="5.24"/>
     <x v="8"/>
   </r>
@@ -1653,7 +1847,7 @@
     <x v="3"/>
     <s v="KE23W"/>
     <x v="9"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="13.8"/>
     <x v="9"/>
   </r>
@@ -1665,7 +1859,7 @@
     <x v="2"/>
     <s v="KE36Li"/>
     <x v="10"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="7510"/>
     <x v="10"/>
   </r>
@@ -1677,7 +1871,7 @@
     <x v="2"/>
     <s v="KEAA06"/>
     <x v="11"/>
-    <n v="3"/>
+    <x v="7"/>
     <n v="8.35"/>
     <x v="11"/>
   </r>
@@ -1689,7 +1883,7 @@
     <x v="3"/>
     <s v="KE13W08"/>
     <x v="12"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="21.25"/>
     <x v="12"/>
   </r>
@@ -1701,7 +1895,7 @@
     <x v="4"/>
     <s v="KEBL100"/>
     <x v="13"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="282"/>
     <x v="13"/>
   </r>
@@ -1713,7 +1907,7 @@
     <x v="3"/>
     <s v="KE9W04"/>
     <x v="14"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="8.1999999999999993"/>
     <x v="14"/>
   </r>
@@ -1725,7 +1919,7 @@
     <x v="3"/>
     <s v="KE20W08"/>
     <x v="15"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="21.4"/>
     <x v="15"/>
   </r>
@@ -1737,7 +1931,7 @@
     <x v="3"/>
     <s v="KE20W04"/>
     <x v="16"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="17.45"/>
     <x v="16"/>
   </r>
@@ -1749,7 +1943,7 @@
     <x v="4"/>
     <s v="KEBL1200"/>
     <x v="17"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="2310"/>
     <x v="17"/>
   </r>
@@ -1761,7 +1955,7 @@
     <x v="0"/>
     <s v="KE250"/>
     <x v="18"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="442.5"/>
     <x v="18"/>
   </r>
@@ -1773,7 +1967,7 @@
     <x v="3"/>
     <s v="KE9W08"/>
     <x v="19"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="16.5"/>
     <x v="19"/>
   </r>
@@ -1785,7 +1979,7 @@
     <x v="1"/>
     <s v="KI2K"/>
     <x v="20"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="3066"/>
     <x v="20"/>
   </r>
@@ -1797,7 +1991,7 @@
     <x v="0"/>
     <s v="KE001"/>
     <x v="21"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="23.85"/>
     <x v="21"/>
   </r>
@@ -1809,7 +2003,7 @@
     <x v="3"/>
     <s v="KE23W08"/>
     <x v="22"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="20.5"/>
     <x v="22"/>
   </r>
@@ -1821,7 +2015,7 @@
     <x v="5"/>
     <s v="KEPATH01"/>
     <x v="23"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="13.25"/>
     <x v="23"/>
   </r>
@@ -1833,7 +2027,7 @@
     <x v="5"/>
     <s v="KEPATH04"/>
     <x v="24"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="21.03"/>
     <x v="24"/>
   </r>
@@ -1845,7 +2039,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="14"/>
     <x v="25"/>
   </r>
@@ -1857,7 +2051,7 @@
     <x v="2"/>
     <s v="KE18Li"/>
     <x v="26"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="5205"/>
     <x v="26"/>
   </r>
@@ -1869,7 +2063,7 @@
     <x v="5"/>
     <s v="KEPATH04"/>
     <x v="24"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="23.03"/>
     <x v="27"/>
   </r>
@@ -1881,7 +2075,7 @@
     <x v="1"/>
     <s v="KI13K"/>
     <x v="4"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="28606"/>
     <x v="28"/>
   </r>
@@ -1893,7 +2087,7 @@
     <x v="1"/>
     <s v="KI4K"/>
     <x v="27"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="6128"/>
     <x v="29"/>
   </r>
@@ -1905,7 +2099,7 @@
     <x v="3"/>
     <s v="KE9W08"/>
     <x v="19"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="14.5"/>
     <x v="30"/>
   </r>
@@ -1917,7 +2111,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="13"/>
     <x v="25"/>
   </r>
@@ -1929,7 +2123,7 @@
     <x v="2"/>
     <s v="KEAAA12"/>
     <x v="6"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="14.8"/>
     <x v="31"/>
   </r>
@@ -1941,7 +2135,7 @@
     <x v="5"/>
     <s v="KEPATH12"/>
     <x v="28"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="45.92"/>
     <x v="32"/>
   </r>
@@ -1953,7 +2147,7 @@
     <x v="0"/>
     <s v="KE575"/>
     <x v="29"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="1012.25"/>
     <x v="33"/>
   </r>
@@ -1965,7 +2159,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="19"/>
     <x v="34"/>
   </r>
@@ -1977,7 +2171,7 @@
     <x v="2"/>
     <s v="KEAA06"/>
     <x v="11"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="11.35"/>
     <x v="35"/>
   </r>
@@ -1989,7 +2183,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="15"/>
     <x v="36"/>
   </r>
@@ -2001,7 +2195,7 @@
     <x v="0"/>
     <s v="KE180"/>
     <x v="30"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="317"/>
     <x v="37"/>
   </r>
@@ -2013,7 +2207,7 @@
     <x v="2"/>
     <s v="KEAAA12"/>
     <x v="6"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="18.8"/>
     <x v="38"/>
   </r>
@@ -2025,7 +2219,7 @@
     <x v="4"/>
     <s v="KEBL200"/>
     <x v="31"/>
-    <n v="3"/>
+    <x v="7"/>
     <n v="557"/>
     <x v="39"/>
   </r>
@@ -2037,7 +2231,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="14"/>
     <x v="40"/>
   </r>
@@ -2049,7 +2243,7 @@
     <x v="5"/>
     <s v="KEPATH08"/>
     <x v="32"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="42.18"/>
     <x v="41"/>
   </r>
@@ -2061,7 +2255,7 @@
     <x v="5"/>
     <s v="KEPATH01"/>
     <x v="23"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="7.25"/>
     <x v="42"/>
   </r>
@@ -2073,7 +2267,7 @@
     <x v="3"/>
     <s v="KE23W08"/>
     <x v="22"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="20.5"/>
     <x v="43"/>
   </r>
@@ -2085,7 +2279,7 @@
     <x v="0"/>
     <s v="KE575"/>
     <x v="29"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="1015.25"/>
     <x v="44"/>
   </r>
@@ -2097,7 +2291,7 @@
     <x v="5"/>
     <s v="KEPATH01"/>
     <x v="23"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="11.25"/>
     <x v="45"/>
   </r>
@@ -2109,7 +2303,7 @@
     <x v="4"/>
     <s v="KEBR5"/>
     <x v="33"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="58"/>
     <x v="46"/>
   </r>
@@ -2121,7 +2315,7 @@
     <x v="0"/>
     <s v="KE275"/>
     <x v="34"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="488.25"/>
     <x v="47"/>
   </r>
@@ -2133,7 +2327,7 @@
     <x v="2"/>
     <s v="KE48Li"/>
     <x v="35"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="13235"/>
     <x v="48"/>
   </r>
@@ -2145,7 +2339,7 @@
     <x v="3"/>
     <s v="KE20W08"/>
     <x v="15"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="14.4"/>
     <x v="49"/>
   </r>
@@ -2157,7 +2351,7 @@
     <x v="2"/>
     <s v="KE18Li"/>
     <x v="26"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="5201"/>
     <x v="50"/>
   </r>
@@ -2169,7 +2363,7 @@
     <x v="3"/>
     <s v="KE13W08"/>
     <x v="12"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="14.25"/>
     <x v="51"/>
   </r>
@@ -2181,7 +2375,7 @@
     <x v="3"/>
     <s v="KE9W08"/>
     <x v="19"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="12.5"/>
     <x v="52"/>
   </r>
@@ -2193,7 +2387,7 @@
     <x v="0"/>
     <s v="KE325X"/>
     <x v="36"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="895.5"/>
     <x v="53"/>
   </r>
@@ -2205,7 +2399,7 @@
     <x v="5"/>
     <s v="KEPATH08"/>
     <x v="32"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="43.18"/>
     <x v="54"/>
   </r>
@@ -2217,7 +2411,7 @@
     <x v="0"/>
     <s v="KE001"/>
     <x v="21"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="19.850000000000001"/>
     <x v="55"/>
   </r>
@@ -2229,7 +2423,7 @@
     <x v="4"/>
     <s v="KEBL400"/>
     <x v="37"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="889"/>
     <x v="56"/>
   </r>
@@ -2241,7 +2435,7 @@
     <x v="2"/>
     <s v="KEAAA06"/>
     <x v="38"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="2.65"/>
     <x v="57"/>
   </r>
@@ -2253,7 +2447,7 @@
     <x v="3"/>
     <s v="KE23W08"/>
     <x v="22"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="26.5"/>
     <x v="58"/>
   </r>
@@ -2265,7 +2459,7 @@
     <x v="3"/>
     <s v="KE9W"/>
     <x v="7"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="7"/>
     <x v="59"/>
   </r>
@@ -2277,7 +2471,7 @@
     <x v="2"/>
     <s v="KE36Li"/>
     <x v="10"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="7510"/>
     <x v="60"/>
   </r>
@@ -2289,7 +2483,7 @@
     <x v="0"/>
     <s v="KE625"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="1204.23"/>
     <x v="61"/>
   </r>
@@ -2301,7 +2495,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="16"/>
     <x v="62"/>
   </r>
@@ -2313,7 +2507,7 @@
     <x v="4"/>
     <s v="KEBL100"/>
     <x v="13"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="285"/>
     <x v="63"/>
   </r>
@@ -2325,7 +2519,7 @@
     <x v="0"/>
     <s v="KE450"/>
     <x v="39"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="796.5"/>
     <x v="64"/>
   </r>
@@ -2337,7 +2531,7 @@
     <x v="2"/>
     <s v="KEAA12"/>
     <x v="40"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="13.5"/>
     <x v="65"/>
   </r>
@@ -2349,7 +2543,7 @@
     <x v="3"/>
     <s v="KE20W08"/>
     <x v="15"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="14.4"/>
     <x v="66"/>
   </r>
@@ -2361,7 +2555,7 @@
     <x v="0"/>
     <s v="KE225"/>
     <x v="41"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="391"/>
     <x v="67"/>
   </r>
@@ -2373,7 +2567,7 @@
     <x v="2"/>
     <s v="KEAAA06"/>
     <x v="38"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="16.5"/>
     <x v="68"/>
   </r>
@@ -2385,7 +2579,7 @@
     <x v="1"/>
     <s v="KI20K"/>
     <x v="42"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="44001"/>
     <x v="69"/>
   </r>
@@ -2397,7 +2591,7 @@
     <x v="0"/>
     <s v="KE325"/>
     <x v="43"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="576.75"/>
     <x v="70"/>
   </r>
@@ -2409,7 +2603,7 @@
     <x v="0"/>
     <s v="KE250X"/>
     <x v="44"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="660"/>
     <x v="71"/>
   </r>
@@ -2421,7 +2615,7 @@
     <x v="2"/>
     <s v="KEAAA06"/>
     <x v="38"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="12.5"/>
     <x v="52"/>
   </r>
@@ -2433,7 +2627,7 @@
     <x v="0"/>
     <s v="KE5"/>
     <x v="5"/>
-    <n v="6"/>
+    <x v="17"/>
     <n v="46.95"/>
     <x v="72"/>
   </r>
@@ -2445,7 +2639,7 @@
     <x v="1"/>
     <s v="KI20K"/>
     <x v="42"/>
-    <n v="6"/>
+    <x v="17"/>
     <n v="44006"/>
     <x v="73"/>
   </r>
@@ -2457,7 +2651,7 @@
     <x v="3"/>
     <s v="KE13W08"/>
     <x v="12"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="21.25"/>
     <x v="74"/>
   </r>
@@ -2469,7 +2663,7 @@
     <x v="4"/>
     <s v="KEBL100"/>
     <x v="13"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="290"/>
     <x v="75"/>
   </r>
@@ -2481,7 +2675,7 @@
     <x v="2"/>
     <s v="KEAA06"/>
     <x v="11"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="10.35"/>
     <x v="76"/>
   </r>
@@ -2493,7 +2687,7 @@
     <x v="0"/>
     <s v="KE325X"/>
     <x v="36"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="891.5"/>
     <x v="77"/>
   </r>
@@ -2505,7 +2699,7 @@
     <x v="4"/>
     <s v="KEBL400"/>
     <x v="37"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="883"/>
     <x v="78"/>
   </r>
@@ -2517,7 +2711,7 @@
     <x v="5"/>
     <s v="KEPATH04"/>
     <x v="24"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="29.03"/>
     <x v="79"/>
   </r>
@@ -2529,7 +2723,7 @@
     <x v="3"/>
     <s v="KE20W08"/>
     <x v="15"/>
-    <n v="3"/>
+    <x v="7"/>
     <n v="13.4"/>
     <x v="80"/>
   </r>
@@ -2541,7 +2735,7 @@
     <x v="1"/>
     <s v="KI9K"/>
     <x v="1"/>
-    <n v="3"/>
+    <x v="7"/>
     <n v="19803"/>
     <x v="81"/>
   </r>
@@ -2553,7 +2747,7 @@
     <x v="0"/>
     <s v="KE700"/>
     <x v="45"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="1504"/>
     <x v="82"/>
   </r>
@@ -2565,7 +2759,7 @@
     <x v="2"/>
     <s v="KE48Li"/>
     <x v="35"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="13242"/>
     <x v="83"/>
   </r>
@@ -2577,7 +2771,7 @@
     <x v="4"/>
     <s v="KEBL800"/>
     <x v="46"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="1284"/>
     <x v="84"/>
   </r>
@@ -2589,7 +2783,7 @@
     <x v="2"/>
     <s v="KEAA06"/>
     <x v="11"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="16.350000000000001"/>
     <x v="85"/>
   </r>
@@ -2601,7 +2795,7 @@
     <x v="3"/>
     <s v="KE23W08"/>
     <x v="22"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="27.5"/>
     <x v="86"/>
   </r>
@@ -2613,7 +2807,7 @@
     <x v="3"/>
     <s v="KE9W"/>
     <x v="7"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="4"/>
     <x v="87"/>
   </r>
@@ -2625,7 +2819,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="18"/>
     <x v="88"/>
   </r>
@@ -2637,7 +2831,7 @@
     <x v="3"/>
     <s v="KE13W04"/>
     <x v="47"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="16.55"/>
     <x v="89"/>
   </r>
@@ -2649,7 +2843,7 @@
     <x v="4"/>
     <s v="KEBL600"/>
     <x v="48"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="1034"/>
     <x v="90"/>
   </r>
@@ -2661,7 +2855,7 @@
     <x v="0"/>
     <s v="KE300"/>
     <x v="49"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="531"/>
     <x v="91"/>
   </r>
@@ -2673,7 +2867,7 @@
     <x v="3"/>
     <s v="KE20W08"/>
     <x v="15"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="14.4"/>
     <x v="92"/>
   </r>
@@ -2685,7 +2879,7 @@
     <x v="2"/>
     <s v="KE12Li"/>
     <x v="3"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="4509"/>
     <x v="93"/>
   </r>
@@ -2697,7 +2891,7 @@
     <x v="0"/>
     <s v="KE001"/>
     <x v="21"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="18.850000000000001"/>
     <x v="94"/>
   </r>
@@ -2709,7 +2903,7 @@
     <x v="4"/>
     <s v="KEBL800"/>
     <x v="46"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="1282"/>
     <x v="95"/>
   </r>
@@ -2721,7 +2915,7 @@
     <x v="0"/>
     <s v="KE625"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="7"/>
     <n v="1201.23"/>
     <x v="96"/>
   </r>
@@ -2733,7 +2927,7 @@
     <x v="0"/>
     <s v="KE5"/>
     <x v="5"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="43.95"/>
     <x v="97"/>
   </r>
@@ -2745,7 +2939,7 @@
     <x v="0"/>
     <s v="KE450"/>
     <x v="39"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="797.5"/>
     <x v="98"/>
   </r>
@@ -2757,7 +2951,7 @@
     <x v="0"/>
     <s v="KE180"/>
     <x v="30"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="324"/>
     <x v="99"/>
   </r>
@@ -2769,7 +2963,7 @@
     <x v="1"/>
     <s v="KI7K"/>
     <x v="2"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="10718"/>
     <x v="100"/>
   </r>
@@ -2781,7 +2975,7 @@
     <x v="3"/>
     <s v="KE23W"/>
     <x v="9"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="13.8"/>
     <x v="101"/>
   </r>
@@ -2793,7 +2987,7 @@
     <x v="4"/>
     <s v="KEBL1200"/>
     <x v="17"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="2310"/>
     <x v="102"/>
   </r>
@@ -2805,7 +2999,7 @@
     <x v="3"/>
     <s v="KE23W"/>
     <x v="9"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="13.8"/>
     <x v="103"/>
   </r>
@@ -2817,7 +3011,7 @@
     <x v="2"/>
     <s v="KEAA12"/>
     <x v="40"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="18.5"/>
     <x v="104"/>
   </r>
@@ -2829,7 +3023,7 @@
     <x v="3"/>
     <s v="KE20W04"/>
     <x v="16"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="14.45"/>
     <x v="105"/>
   </r>
@@ -2841,7 +3035,7 @@
     <x v="5"/>
     <s v="KEPATH08"/>
     <x v="32"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="37.18"/>
     <x v="106"/>
   </r>
@@ -2853,7 +3047,7 @@
     <x v="4"/>
     <s v="KEBL100"/>
     <x v="13"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="289"/>
     <x v="107"/>
   </r>
@@ -2865,7 +3059,7 @@
     <x v="4"/>
     <s v="KEBL200"/>
     <x v="31"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="558"/>
     <x v="108"/>
   </r>
@@ -2877,7 +3071,7 @@
     <x v="4"/>
     <s v="KEBL400"/>
     <x v="37"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="886"/>
     <x v="109"/>
   </r>
@@ -2889,7 +3083,7 @@
     <x v="3"/>
     <s v="KE23W"/>
     <x v="9"/>
-    <n v="3"/>
+    <x v="7"/>
     <n v="13.8"/>
     <x v="110"/>
   </r>
@@ -2901,7 +3095,7 @@
     <x v="1"/>
     <s v="KI2K"/>
     <x v="20"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="3064"/>
     <x v="111"/>
   </r>
@@ -2913,7 +3107,7 @@
     <x v="1"/>
     <s v="KI4K"/>
     <x v="27"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="6127"/>
     <x v="112"/>
   </r>
@@ -2925,7 +3119,7 @@
     <x v="4"/>
     <s v="KEBL400"/>
     <x v="37"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="882"/>
     <x v="113"/>
   </r>
@@ -2937,7 +3131,7 @@
     <x v="3"/>
     <s v="KE9W"/>
     <x v="7"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="12"/>
     <x v="114"/>
   </r>
@@ -2949,7 +3143,7 @@
     <x v="0"/>
     <s v="KE001"/>
     <x v="21"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="17.850000000000001"/>
     <x v="115"/>
   </r>
@@ -2961,7 +3155,7 @@
     <x v="5"/>
     <s v="KEPATH12"/>
     <x v="28"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="47.92"/>
     <x v="116"/>
   </r>
@@ -2973,7 +3167,7 @@
     <x v="0"/>
     <s v="KE180"/>
     <x v="30"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="320"/>
     <x v="117"/>
   </r>
@@ -2985,7 +3179,7 @@
     <x v="3"/>
     <s v="KE20W"/>
     <x v="50"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="9.65"/>
     <x v="118"/>
   </r>
@@ -2997,7 +3191,7 @@
     <x v="2"/>
     <s v="KEAAA06"/>
     <x v="38"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="9.5"/>
     <x v="119"/>
   </r>
@@ -3009,7 +3203,7 @@
     <x v="0"/>
     <s v="KE200"/>
     <x v="51"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="360"/>
     <x v="120"/>
   </r>
@@ -3021,7 +3215,7 @@
     <x v="4"/>
     <s v="KEBL100"/>
     <x v="13"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="281"/>
     <x v="121"/>
   </r>
@@ -3033,7 +3227,7 @@
     <x v="0"/>
     <s v="KE200"/>
     <x v="51"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="351"/>
     <x v="122"/>
   </r>
@@ -3045,7 +3239,7 @@
     <x v="4"/>
     <s v="KEBR5"/>
     <x v="33"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="59"/>
     <x v="123"/>
   </r>
@@ -3057,7 +3251,7 @@
     <x v="5"/>
     <s v="KEPATH01"/>
     <x v="23"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="11.25"/>
     <x v="124"/>
   </r>
@@ -3069,7 +3263,7 @@
     <x v="2"/>
     <s v="KEAA12"/>
     <x v="40"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="18.5"/>
     <x v="125"/>
   </r>
@@ -3081,7 +3275,7 @@
     <x v="4"/>
     <s v="KEBL600"/>
     <x v="48"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="1032"/>
     <x v="126"/>
   </r>
@@ -3093,7 +3287,7 @@
     <x v="3"/>
     <s v="KE20W08"/>
     <x v="15"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="14.4"/>
     <x v="127"/>
   </r>
@@ -3105,7 +3299,7 @@
     <x v="5"/>
     <s v="KEPATH12"/>
     <x v="28"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="44.92"/>
     <x v="128"/>
   </r>
@@ -3117,7 +3311,7 @@
     <x v="2"/>
     <s v="KEAAA06"/>
     <x v="38"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="9.5"/>
     <x v="119"/>
   </r>
@@ -3129,7 +3323,7 @@
     <x v="2"/>
     <s v="KEAA06"/>
     <x v="11"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="11.35"/>
     <x v="129"/>
   </r>
@@ -3141,7 +3335,7 @@
     <x v="4"/>
     <s v="KEBR5"/>
     <x v="33"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="56"/>
     <x v="130"/>
   </r>
@@ -3153,7 +3347,7 @@
     <x v="0"/>
     <s v="KE200"/>
     <x v="51"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="351"/>
     <x v="131"/>
   </r>
@@ -3165,7 +3359,7 @@
     <x v="3"/>
     <s v="KE20W"/>
     <x v="50"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="11.65"/>
     <x v="132"/>
   </r>
@@ -3177,7 +3371,7 @@
     <x v="4"/>
     <s v="KEBL200"/>
     <x v="31"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="559"/>
     <x v="133"/>
   </r>
@@ -3189,7 +3383,7 @@
     <x v="3"/>
     <s v="KE20W08"/>
     <x v="15"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="14.4"/>
     <x v="134"/>
   </r>
@@ -3201,7 +3395,7 @@
     <x v="5"/>
     <s v="KEPATH08"/>
     <x v="32"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="37.18"/>
     <x v="135"/>
   </r>
@@ -3213,7 +3407,7 @@
     <x v="3"/>
     <s v="KE9W08"/>
     <x v="19"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="14.5"/>
     <x v="136"/>
   </r>
@@ -3225,7 +3419,7 @@
     <x v="2"/>
     <s v="KEAAA12"/>
     <x v="6"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="14.8"/>
     <x v="137"/>
   </r>
@@ -3237,7 +3431,7 @@
     <x v="1"/>
     <s v="KI20K"/>
     <x v="42"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="44006"/>
     <x v="138"/>
   </r>
@@ -3249,7 +3443,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="15"/>
     <x v="139"/>
   </r>
@@ -3261,7 +3455,7 @@
     <x v="3"/>
     <s v="KE9W"/>
     <x v="7"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="4"/>
     <x v="140"/>
   </r>
@@ -3273,7 +3467,7 @@
     <x v="0"/>
     <s v="KE200"/>
     <x v="51"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="351"/>
     <x v="141"/>
   </r>
@@ -3285,7 +3479,7 @@
     <x v="2"/>
     <s v="KE48Li"/>
     <x v="35"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="13242"/>
     <x v="142"/>
   </r>
@@ -3297,7 +3491,7 @@
     <x v="5"/>
     <s v="KEPATH04"/>
     <x v="24"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="21.03"/>
     <x v="143"/>
   </r>
@@ -3309,7 +3503,7 @@
     <x v="3"/>
     <s v="KE23W08"/>
     <x v="22"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="26.5"/>
     <x v="144"/>
   </r>
@@ -3321,7 +3515,7 @@
     <x v="3"/>
     <s v="KE9W"/>
     <x v="7"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="12"/>
     <x v="114"/>
   </r>
@@ -3333,7 +3527,7 @@
     <x v="5"/>
     <s v="KEPATH08"/>
     <x v="32"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="42.18"/>
     <x v="145"/>
   </r>
@@ -3345,7 +3539,7 @@
     <x v="0"/>
     <s v="KE625"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="1204.23"/>
     <x v="61"/>
   </r>
@@ -3357,7 +3551,7 @@
     <x v="4"/>
     <s v="KEBL100"/>
     <x v="13"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="285"/>
     <x v="146"/>
   </r>
@@ -3369,7 +3563,7 @@
     <x v="0"/>
     <s v="KE225"/>
     <x v="41"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="391"/>
     <x v="147"/>
   </r>
@@ -3381,7 +3575,7 @@
     <x v="3"/>
     <s v="KE23W"/>
     <x v="9"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="13.8"/>
     <x v="101"/>
   </r>
@@ -3393,7 +3587,7 @@
     <x v="5"/>
     <s v="KEPATH01"/>
     <x v="23"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="11.25"/>
     <x v="148"/>
   </r>
@@ -3405,7 +3599,7 @@
     <x v="4"/>
     <s v="KEBL200"/>
     <x v="31"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="559"/>
     <x v="149"/>
   </r>
@@ -3417,7 +3611,7 @@
     <x v="3"/>
     <s v="KE9W04"/>
     <x v="14"/>
-    <n v="6"/>
+    <x v="17"/>
     <n v="8.1999999999999993"/>
     <x v="150"/>
   </r>
@@ -3429,7 +3623,7 @@
     <x v="2"/>
     <s v="KEAA12"/>
     <x v="40"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="18.5"/>
     <x v="151"/>
   </r>
@@ -3441,7 +3635,7 @@
     <x v="2"/>
     <s v="KE36Li"/>
     <x v="10"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="7510"/>
     <x v="152"/>
   </r>
@@ -3453,7 +3647,7 @@
     <x v="3"/>
     <s v="KE20W04"/>
     <x v="16"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="14.45"/>
     <x v="153"/>
   </r>
@@ -3465,7 +3659,7 @@
     <x v="0"/>
     <s v="KE180"/>
     <x v="30"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="320"/>
     <x v="154"/>
   </r>
@@ -3477,7 +3671,7 @@
     <x v="4"/>
     <s v="KEBL1200"/>
     <x v="17"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="2310"/>
     <x v="155"/>
   </r>
@@ -3489,7 +3683,7 @@
     <x v="5"/>
     <s v="KEPATH12"/>
     <x v="28"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="47.92"/>
     <x v="116"/>
   </r>
@@ -3501,7 +3695,7 @@
     <x v="5"/>
     <s v="KEPATH04"/>
     <x v="24"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="29.03"/>
     <x v="156"/>
   </r>
@@ -3513,7 +3707,7 @@
     <x v="3"/>
     <s v="KE23W08"/>
     <x v="22"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="20.5"/>
     <x v="157"/>
   </r>
@@ -3525,7 +3719,7 @@
     <x v="3"/>
     <s v="KE13W"/>
     <x v="8"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="5.24"/>
     <x v="158"/>
   </r>
@@ -3537,7 +3731,7 @@
     <x v="2"/>
     <s v="KEAAA06"/>
     <x v="38"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="16.5"/>
     <x v="159"/>
   </r>
@@ -3549,7 +3743,7 @@
     <x v="4"/>
     <s v="KEBL600"/>
     <x v="48"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="1034"/>
     <x v="160"/>
   </r>
@@ -3561,7 +3755,7 @@
     <x v="5"/>
     <s v="KEPATH12"/>
     <x v="28"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="45.92"/>
     <x v="161"/>
   </r>
@@ -3573,7 +3767,7 @@
     <x v="3"/>
     <s v="KE9W"/>
     <x v="7"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="9"/>
     <x v="127"/>
   </r>
@@ -3585,7 +3779,7 @@
     <x v="2"/>
     <s v="KE18Li"/>
     <x v="26"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="5201"/>
     <x v="162"/>
   </r>
@@ -3597,7 +3791,7 @@
     <x v="0"/>
     <s v="KE001"/>
     <x v="21"/>
-    <n v="6"/>
+    <x v="17"/>
     <n v="23.85"/>
     <x v="163"/>
   </r>
@@ -3609,7 +3803,7 @@
     <x v="3"/>
     <s v="KE20W08"/>
     <x v="15"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="14.4"/>
     <x v="127"/>
   </r>
@@ -3621,7 +3815,7 @@
     <x v="2"/>
     <s v="KEAA06"/>
     <x v="11"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="11.35"/>
     <x v="164"/>
   </r>
@@ -3633,7 +3827,7 @@
     <x v="2"/>
     <s v="KE12Li"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="4509"/>
     <x v="165"/>
   </r>
@@ -3645,7 +3839,7 @@
     <x v="1"/>
     <s v="KI2K"/>
     <x v="20"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="3064"/>
     <x v="111"/>
   </r>
@@ -3657,7 +3851,7 @@
     <x v="3"/>
     <s v="KE9W"/>
     <x v="7"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="166"/>
   </r>
@@ -3669,7 +3863,7 @@
     <x v="2"/>
     <s v="KEAAA12"/>
     <x v="6"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="18.8"/>
     <x v="167"/>
   </r>
@@ -3681,7 +3875,7 @@
     <x v="3"/>
     <s v="KE20W08"/>
     <x v="15"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="14.4"/>
     <x v="168"/>
   </r>
@@ -3693,7 +3887,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="16"/>
     <x v="169"/>
   </r>
@@ -3705,7 +3899,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="18"/>
     <x v="170"/>
   </r>
@@ -3717,7 +3911,7 @@
     <x v="2"/>
     <s v="KEAA06"/>
     <x v="11"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="8.35"/>
     <x v="171"/>
   </r>
@@ -3729,7 +3923,7 @@
     <x v="0"/>
     <s v="KE200"/>
     <x v="51"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="360"/>
     <x v="172"/>
   </r>
@@ -3741,7 +3935,7 @@
     <x v="3"/>
     <s v="KE23W08"/>
     <x v="22"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="27.5"/>
     <x v="173"/>
   </r>
@@ -3753,7 +3947,7 @@
     <x v="4"/>
     <s v="KEBR5"/>
     <x v="33"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="56"/>
     <x v="174"/>
   </r>
@@ -3765,7 +3959,7 @@
     <x v="1"/>
     <s v="KI7K"/>
     <x v="2"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="10714"/>
     <x v="175"/>
   </r>
@@ -3777,7 +3971,7 @@
     <x v="1"/>
     <s v="KI9K"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="19806"/>
     <x v="176"/>
   </r>
@@ -3789,7 +3983,7 @@
     <x v="0"/>
     <s v="KE325"/>
     <x v="43"/>
-    <n v="3"/>
+    <x v="7"/>
     <n v="576.75"/>
     <x v="177"/>
   </r>
@@ -3801,7 +3995,7 @@
     <x v="5"/>
     <s v="KEPATH01"/>
     <x v="23"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="11.25"/>
     <x v="178"/>
   </r>
@@ -3813,7 +4007,7 @@
     <x v="1"/>
     <s v="KI2K"/>
     <x v="20"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="3066"/>
     <x v="179"/>
   </r>
@@ -3825,7 +4019,7 @@
     <x v="0"/>
     <s v="KE450"/>
     <x v="39"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="797.5"/>
     <x v="180"/>
   </r>
@@ -3837,7 +4031,7 @@
     <x v="1"/>
     <s v="KI9K"/>
     <x v="1"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="19803"/>
     <x v="181"/>
   </r>
@@ -3849,7 +4043,7 @@
     <x v="4"/>
     <s v="KEBL600"/>
     <x v="48"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1032"/>
     <x v="182"/>
   </r>
@@ -3861,7 +4055,7 @@
     <x v="0"/>
     <s v="KE625"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="7"/>
     <n v="1201.23"/>
     <x v="96"/>
   </r>
@@ -3873,7 +4067,7 @@
     <x v="4"/>
     <s v="KEBL800"/>
     <x v="46"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="1282"/>
     <x v="183"/>
   </r>
@@ -3885,7 +4079,7 @@
     <x v="2"/>
     <s v="KE36Li"/>
     <x v="10"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="7510"/>
     <x v="184"/>
   </r>
@@ -3897,7 +4091,7 @@
     <x v="0"/>
     <s v="KE625"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1201.23"/>
     <x v="0"/>
   </r>
@@ -3909,7 +4103,7 @@
     <x v="1"/>
     <s v="KI13K"/>
     <x v="4"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="28604"/>
     <x v="185"/>
   </r>
@@ -3921,7 +4115,7 @@
     <x v="0"/>
     <s v="KE250X"/>
     <x v="44"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="660"/>
     <x v="186"/>
   </r>
@@ -3933,7 +4127,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="19"/>
     <x v="187"/>
   </r>
@@ -3945,7 +4139,7 @@
     <x v="0"/>
     <s v="KE450"/>
     <x v="39"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="796.5"/>
     <x v="188"/>
   </r>
@@ -3957,7 +4151,7 @@
     <x v="0"/>
     <s v="KE001"/>
     <x v="21"/>
-    <n v="6"/>
+    <x v="17"/>
     <n v="17.850000000000001"/>
     <x v="189"/>
   </r>
@@ -3969,7 +4163,7 @@
     <x v="4"/>
     <s v="KEBL1200"/>
     <x v="17"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="2310"/>
     <x v="190"/>
   </r>
@@ -3981,7 +4175,7 @@
     <x v="3"/>
     <s v="KE20W"/>
     <x v="50"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="11.65"/>
     <x v="191"/>
   </r>
@@ -3993,7 +4187,7 @@
     <x v="0"/>
     <s v="KE700"/>
     <x v="45"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="1504"/>
     <x v="192"/>
   </r>
@@ -4005,7 +4199,7 @@
     <x v="2"/>
     <s v="KEAA12"/>
     <x v="40"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="18.5"/>
     <x v="193"/>
   </r>
@@ -4017,7 +4211,7 @@
     <x v="0"/>
     <s v="KE250"/>
     <x v="18"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="442.5"/>
     <x v="194"/>
   </r>
@@ -4029,7 +4223,7 @@
     <x v="1"/>
     <s v="KI7K"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="10718"/>
     <x v="195"/>
   </r>
@@ -4041,7 +4235,7 @@
     <x v="0"/>
     <s v="KE001"/>
     <x v="21"/>
-    <n v="6"/>
+    <x v="17"/>
     <n v="18.850000000000001"/>
     <x v="196"/>
   </r>
@@ -4053,7 +4247,7 @@
     <x v="3"/>
     <s v="KE23W08"/>
     <x v="22"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="20.5"/>
     <x v="197"/>
   </r>
@@ -4065,7 +4259,7 @@
     <x v="3"/>
     <s v="KE9W08"/>
     <x v="19"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="16.5"/>
     <x v="198"/>
   </r>
@@ -4077,7 +4271,7 @@
     <x v="4"/>
     <s v="KEBL200"/>
     <x v="31"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="558"/>
     <x v="199"/>
   </r>
@@ -4089,7 +4283,7 @@
     <x v="5"/>
     <s v="KEPATH01"/>
     <x v="23"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="7.25"/>
     <x v="42"/>
   </r>
@@ -4101,7 +4295,7 @@
     <x v="0"/>
     <s v="KE275"/>
     <x v="34"/>
-    <n v="6"/>
+    <x v="17"/>
     <n v="488.25"/>
     <x v="200"/>
   </r>
@@ -4113,7 +4307,7 @@
     <x v="3"/>
     <s v="KE23W"/>
     <x v="9"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="13.8"/>
     <x v="9"/>
   </r>
@@ -4125,7 +4319,7 @@
     <x v="0"/>
     <s v="KE180"/>
     <x v="30"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="317"/>
     <x v="201"/>
   </r>
@@ -4137,7 +4331,7 @@
     <x v="4"/>
     <s v="KEBL400"/>
     <x v="37"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="886"/>
     <x v="202"/>
   </r>
@@ -4149,7 +4343,7 @@
     <x v="5"/>
     <s v="KEPATH08"/>
     <x v="32"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="43.18"/>
     <x v="203"/>
   </r>
@@ -4161,7 +4355,7 @@
     <x v="4"/>
     <s v="KEBL800"/>
     <x v="46"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="1284"/>
     <x v="204"/>
   </r>
@@ -4173,7 +4367,7 @@
     <x v="0"/>
     <s v="KE180"/>
     <x v="30"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="324"/>
     <x v="205"/>
   </r>
@@ -4185,7 +4379,7 @@
     <x v="4"/>
     <s v="KEBL400"/>
     <x v="37"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="882"/>
     <x v="206"/>
   </r>
@@ -4197,7 +4391,7 @@
     <x v="2"/>
     <s v="KEAAA06"/>
     <x v="38"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="12.5"/>
     <x v="207"/>
   </r>
@@ -4209,7 +4403,7 @@
     <x v="3"/>
     <s v="KE13W08"/>
     <x v="12"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="14.25"/>
     <x v="208"/>
   </r>
@@ -4221,7 +4415,7 @@
     <x v="3"/>
     <s v="KE23W"/>
     <x v="9"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="13.8"/>
     <x v="209"/>
   </r>
@@ -4233,7 +4427,7 @@
     <x v="2"/>
     <s v="KEAA06"/>
     <x v="11"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="16.350000000000001"/>
     <x v="210"/>
   </r>
@@ -4245,7 +4439,7 @@
     <x v="3"/>
     <s v="KE13W04"/>
     <x v="47"/>
-    <n v="6"/>
+    <x v="17"/>
     <n v="16.55"/>
     <x v="211"/>
   </r>
@@ -4257,7 +4451,7 @@
     <x v="0"/>
     <s v="KE001"/>
     <x v="21"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="19.850000000000001"/>
     <x v="212"/>
   </r>
@@ -4269,7 +4463,7 @@
     <x v="1"/>
     <s v="KI20K"/>
     <x v="42"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="44001"/>
     <x v="213"/>
   </r>
@@ -4281,7 +4475,7 @@
     <x v="0"/>
     <s v="KE5"/>
     <x v="5"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="43.95"/>
     <x v="214"/>
   </r>
@@ -4293,7 +4487,7 @@
     <x v="1"/>
     <s v="KI13K"/>
     <x v="4"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="28606"/>
     <x v="215"/>
   </r>
@@ -4305,7 +4499,7 @@
     <x v="2"/>
     <s v="KEAA06"/>
     <x v="11"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="10.35"/>
     <x v="216"/>
   </r>
@@ -4317,7 +4511,7 @@
     <x v="2"/>
     <s v="KE48Li"/>
     <x v="35"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="13235"/>
     <x v="217"/>
   </r>
@@ -4329,7 +4523,7 @@
     <x v="3"/>
     <s v="KE20W04"/>
     <x v="16"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="17.45"/>
     <x v="16"/>
   </r>
@@ -4341,7 +4535,7 @@
     <x v="4"/>
     <s v="KEBR5"/>
     <x v="33"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="59"/>
     <x v="218"/>
   </r>
@@ -4353,7 +4547,7 @@
     <x v="0"/>
     <s v="KE5"/>
     <x v="5"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="46.95"/>
     <x v="219"/>
   </r>
@@ -4365,7 +4559,7 @@
     <x v="3"/>
     <s v="KE20W"/>
     <x v="50"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="9.65"/>
     <x v="220"/>
   </r>
@@ -4377,7 +4571,7 @@
     <x v="3"/>
     <s v="KE20W08"/>
     <x v="15"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="14.4"/>
     <x v="88"/>
   </r>
@@ -4389,7 +4583,7 @@
     <x v="0"/>
     <s v="KE325X"/>
     <x v="36"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="895.5"/>
     <x v="221"/>
   </r>
@@ -4401,7 +4595,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="10"/>
+    <x v="1"/>
     <n v="14"/>
     <x v="222"/>
   </r>
@@ -4413,7 +4607,7 @@
     <x v="4"/>
     <s v="KEBL400"/>
     <x v="37"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="889"/>
     <x v="223"/>
   </r>
@@ -4425,7 +4619,7 @@
     <x v="3"/>
     <s v="KE23W"/>
     <x v="9"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="13.8"/>
     <x v="103"/>
   </r>
@@ -4437,7 +4631,7 @@
     <x v="0"/>
     <s v="KE200"/>
     <x v="51"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="351"/>
     <x v="131"/>
   </r>
@@ -4449,7 +4643,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="14"/>
     <x v="224"/>
   </r>
@@ -4461,7 +4655,7 @@
     <x v="2"/>
     <s v="KEAAA06"/>
     <x v="38"/>
-    <n v="17"/>
+    <x v="5"/>
     <n v="9.5"/>
     <x v="225"/>
   </r>
@@ -4473,7 +4667,7 @@
     <x v="4"/>
     <s v="KEBL400"/>
     <x v="37"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="883"/>
     <x v="78"/>
   </r>
@@ -4485,7 +4679,7 @@
     <x v="2"/>
     <s v="KEAAA06"/>
     <x v="38"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="9.5"/>
     <x v="34"/>
   </r>
@@ -4497,7 +4691,7 @@
     <x v="1"/>
     <s v="KI4K"/>
     <x v="27"/>
-    <n v="11"/>
+    <x v="4"/>
     <n v="6128"/>
     <x v="226"/>
   </r>
@@ -4509,7 +4703,7 @@
     <x v="0"/>
     <s v="KE300"/>
     <x v="49"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="531"/>
     <x v="227"/>
   </r>
@@ -4521,7 +4715,7 @@
     <x v="4"/>
     <s v="KEBL100"/>
     <x v="13"/>
-    <n v="9"/>
+    <x v="12"/>
     <n v="281"/>
     <x v="228"/>
   </r>
@@ -4533,7 +4727,7 @@
     <x v="2"/>
     <s v="KE12Li"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="4504"/>
     <x v="229"/>
   </r>
@@ -4545,7 +4739,7 @@
     <x v="2"/>
     <s v="KE18Li"/>
     <x v="26"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="5205"/>
     <x v="230"/>
   </r>
@@ -4557,7 +4751,7 @@
     <x v="4"/>
     <s v="KEBL100"/>
     <x v="13"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="282"/>
     <x v="231"/>
   </r>
@@ -4569,7 +4763,7 @@
     <x v="3"/>
     <s v="KE13W08"/>
     <x v="12"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="21.25"/>
     <x v="232"/>
   </r>
@@ -4581,7 +4775,7 @@
     <x v="3"/>
     <s v="KE20W08"/>
     <x v="15"/>
-    <n v="6"/>
+    <x v="17"/>
     <n v="21.4"/>
     <x v="233"/>
   </r>
@@ -4593,7 +4787,7 @@
     <x v="2"/>
     <s v="KEAA12"/>
     <x v="40"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="13.5"/>
     <x v="65"/>
   </r>
@@ -4605,7 +4799,7 @@
     <x v="5"/>
     <s v="KEPATH12"/>
     <x v="28"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="44.92"/>
     <x v="234"/>
   </r>
@@ -4617,7 +4811,7 @@
     <x v="5"/>
     <s v="KEPATH04"/>
     <x v="24"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="23.03"/>
     <x v="235"/>
   </r>
@@ -4629,7 +4823,7 @@
     <x v="2"/>
     <s v="KEAA06"/>
     <x v="11"/>
-    <n v="4"/>
+    <x v="14"/>
     <n v="11.35"/>
     <x v="236"/>
   </r>
@@ -4641,7 +4835,7 @@
     <x v="3"/>
     <s v="KE9W08"/>
     <x v="19"/>
-    <n v="16"/>
+    <x v="10"/>
     <n v="12.5"/>
     <x v="237"/>
   </r>
@@ -4653,7 +4847,7 @@
     <x v="0"/>
     <s v="KE325X"/>
     <x v="36"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="891.5"/>
     <x v="77"/>
   </r>
@@ -4665,7 +4859,7 @@
     <x v="5"/>
     <s v="KEPATH01"/>
     <x v="23"/>
-    <n v="12"/>
+    <x v="8"/>
     <n v="13.25"/>
     <x v="238"/>
   </r>
@@ -4677,7 +4871,7 @@
     <x v="0"/>
     <s v="KE575"/>
     <x v="29"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="1012.25"/>
     <x v="239"/>
   </r>
@@ -4689,7 +4883,7 @@
     <x v="3"/>
     <s v="KE23W04"/>
     <x v="25"/>
-    <n v="15"/>
+    <x v="11"/>
     <n v="13"/>
     <x v="240"/>
   </r>
@@ -4701,7 +4895,7 @@
     <x v="3"/>
     <s v="KE20W08"/>
     <x v="15"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="13.4"/>
     <x v="241"/>
   </r>
@@ -4713,7 +4907,7 @@
     <x v="4"/>
     <s v="KEBR5"/>
     <x v="33"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="58"/>
     <x v="242"/>
   </r>
@@ -4725,7 +4919,7 @@
     <x v="4"/>
     <s v="KEBL100"/>
     <x v="13"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="289"/>
     <x v="243"/>
   </r>
@@ -4737,7 +4931,7 @@
     <x v="4"/>
     <s v="KEBL200"/>
     <x v="31"/>
-    <n v="14"/>
+    <x v="13"/>
     <n v="557"/>
     <x v="244"/>
   </r>
@@ -4749,7 +4943,7 @@
     <x v="0"/>
     <s v="KE575"/>
     <x v="29"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="1015.25"/>
     <x v="245"/>
   </r>
@@ -4761,7 +4955,7 @@
     <x v="2"/>
     <s v="KEAAA06"/>
     <x v="38"/>
-    <n v="8"/>
+    <x v="3"/>
     <n v="9.5"/>
     <x v="246"/>
   </r>
@@ -4773,7 +4967,7 @@
     <x v="3"/>
     <s v="KE13W08"/>
     <x v="12"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="21.25"/>
     <x v="247"/>
   </r>
@@ -4785,7 +4979,7 @@
     <x v="0"/>
     <s v="KE5"/>
     <x v="5"/>
-    <n v="18"/>
+    <x v="16"/>
     <n v="40.950000000000003"/>
     <x v="248"/>
   </r>
@@ -4797,7 +4991,7 @@
     <x v="2"/>
     <s v="KEAAA12"/>
     <x v="6"/>
-    <n v="5"/>
+    <x v="9"/>
     <n v="12.8"/>
     <x v="62"/>
   </r>
@@ -4809,7 +5003,7 @@
     <x v="1"/>
     <s v="KI4K"/>
     <x v="27"/>
-    <n v="7"/>
+    <x v="6"/>
     <n v="6127"/>
     <x v="112"/>
   </r>
@@ -4821,7 +5015,7 @@
     <x v="4"/>
     <s v="KEBL100"/>
     <x v="13"/>
-    <n v="13"/>
+    <x v="15"/>
     <n v="290"/>
     <x v="249"/>
   </r>
@@ -4829,8 +5023,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4859,9 +5053,9 @@
         <item x="2"/>
         <item x="1"/>
         <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4923,7 +5117,29 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="19">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0">
       <items count="251">
@@ -5204,7 +5420,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -5213,15 +5429,6 @@
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -5243,6 +5450,65 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Category" xr10:uid="{46FF6435-8A3F-4901-BE03-F7F4F87B53C7}" sourceName="Category">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1172857138">
+      <items count="6">
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+        <i x="5" s="1"/>
+        <i x="3"/>
+        <i x="0"/>
+        <i x="4"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Quantity" xr10:uid="{D375D94F-FA7A-4953-820D-5DEDF6F1E048}" sourceName="Quantity">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1172857138">
+      <items count="18">
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+        <i x="7" s="1"/>
+        <i x="14" s="1"/>
+        <i x="9" s="1"/>
+        <i x="17" s="1"/>
+        <i x="6" s="1"/>
+        <i x="3" s="1"/>
+        <i x="12" s="1"/>
+        <i x="1" s="1"/>
+        <i x="4" s="1"/>
+        <i x="8" s="1"/>
+        <i x="15" s="1"/>
+        <i x="13" s="1"/>
+        <i x="11" s="1"/>
+        <i x="10" s="1"/>
+        <i x="5" s="1"/>
+        <i x="16" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Category" xr10:uid="{169F805A-876E-42CC-A31D-B01A5B33204F}" cache="SegmentaciónDeDatos_Category" caption="Category" rowHeight="241300"/>
+  <slicer name="Quantity" xr10:uid="{5B83AD2D-B389-4137-B0D6-DF891F7C0A2F}" cache="SegmentaciónDeDatos_Quantity" caption="Quantity" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5268,7 +5534,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5564,13 +5830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2D221A-1F93-4E8D-B1BD-A9CD4616FBDE}">
-  <dimension ref="A3:B10"/>
+  <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -5640,10 +5906,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5667,43 +5933,32 @@
         <v>212</v>
       </c>
       <c r="B6" s="2">
-        <v>8961.7000000000025</v>
+        <v>8961.7000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="B7" s="2">
-        <v>11108.969999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="2">
-        <v>295106.04000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="2">
-        <v>307043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5428235.46</v>
+        <v>4814977.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5715,7 +5970,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
